--- a/Screens/2 half/2.xlsx
+++ b/Screens/2 half/2.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A128"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="true"/>
@@ -61,177 +61,642 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>7.3048151509435546e-13</v>
+        <v>8.024304997631448e-17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>6.3490460785789105e-15</v>
+        <v>1.9335586942751635e-15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>7.1064604048930824e-15</v>
+        <v>3.0191405745504777e-16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.6691779867621521e-15</v>
+        <v>4.4953035159903151e-17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2.9011282118045937e-13</v>
+        <v>2.0367423763324942e-16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>5.3729980801254006e-13</v>
+        <v>1.7867674558805362e-16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>1.9203333291533736e-15</v>
+        <v>1.2955930821224287e-16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>4.5946800309321803e-15</v>
+        <v>1.1609813120730667e-16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>8.5601552113849486e-14</v>
+        <v>8.7902890979122398e-15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>2.2503801351785714e-14</v>
+        <v>2.3182668653148181e-15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>2.2254464988496867e-15</v>
+        <v>9.8028633622168371e-16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>7.782655941228109e-15</v>
+        <v>2.1341265710386095e-14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>4.6074584898971803e-15</v>
+        <v>1.5209971317292252e-14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>1.207281710708873e-15</v>
+        <v>2.43242062742577e-16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>9.9637644720859379e-14</v>
+        <v>4.3825550693798875e-15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>3.0260571398111297e-14</v>
+        <v>7.2147127945202328e-17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>1.2581075312693923e-15</v>
+        <v>1.2538839704535769e-16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>1.9865366287521407e-15</v>
+        <v>2.1423551645666689e-15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>1.8112730260031307e-15</v>
+        <v>4.0631756885387982e-16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>2.5284001994886023e-14</v>
+        <v>1.9445572330817477e-15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>2.1487604925491695e-16</v>
+        <v>5.140415811505722e-17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>3.1740742138770205e-14</v>
+        <v>1.0964297512112808e-14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>2.7431560615006238e-13</v>
+        <v>5.1397252638313518e-17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>8.4650296885288394e-16</v>
+        <v>9.1413379857162076e-17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>2.2282397503838321e-14</v>
+        <v>6.3542971981313739e-16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>2.205151618666928e-11</v>
+        <v>2.2967875606282725e-15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>1.0918444417168168e-14</v>
+        <v>3.4506001410575677e-16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>2.3612313778642815e-13</v>
+        <v>8.5604155763750942e-16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>7.8186761158708542e-14</v>
+        <v>8.2580400689524931e-13</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>6.550489727886659e-14</v>
+        <v>9.4687363232776628e-17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>1.2260212948250804e-14</v>
+        <v>1.4210279415726633e-16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1.3281227489489505e-11</v>
+        <v>1.0952446237607036e-14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>1.9841537055097017e-12</v>
+        <v>1.2759174741828841e-16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>1.2510657388719202e-14</v>
+        <v>2.3523588161739512e-14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>1.6347055822451588e-14</v>
+        <v>1.6082673001533077e-15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>1.7336839603520055e-14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>3.1017305046811337e-15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>9.0780082552114278e-15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>1.1768859145486097e-16</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>2.2748501771518172e-15</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>3.2567671521860502e-12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>1.1595416516756232e-15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>5.6454342723309727e-16</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>9.8888088170152447e-18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>1.177961672089833e-15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>8.7669867634652174e-17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>1.1530215313655928e-13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>5.0668481878862064e-15</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>2.859325674906656e-14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>3.8309901674523289e-17</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>2.5599045163289855e-16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>1.2263717399774397e-15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>3.1758936474534566e-16</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>1.3468035583178045e-13</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>9.0033504808477943e-18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>1.0158740351744256e-14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>2.0004100011916486e-15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>1.7651302188979213e-16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>9.6521139554856042e-18</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>2.5944239595818412e-16</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>2.5845403378895064e-14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>3.6056624773083356e-16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>6.5424056633062272e-17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>6.9253686567568486e-17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>1.7627712940394074e-18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>4.6009505110276949e-16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>8.2653622692809725e-16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>1.3646189042444991e-14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>7.8208850723275121e-16</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>1.0899001890330218e-13</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>3.9142446891642908e-16</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>4.5260130210548737e-16</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>1.4480789046129746e-15</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>5.2704188518159976e-15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>1.6979428803297771e-17</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>4.8551176818737203e-16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>6.870944083318433e-15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>1.8256790270512134e-15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>1.9145409636846789e-15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>8.280011823141369e-16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>2.8286427769172509e-16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>1.3966931322185233e-16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>1.9516545762522328e-17</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="0">
+        <v>2.2783281756368821e-17</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="0">
+        <v>9.1512913345671956e-15</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="0">
+        <v>3.7850700013735571e-17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="0">
+        <v>4.5117538451683564e-15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="0">
+        <v>8.1116523991213965e-19</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="0">
+        <v>2.3357813164758925e-15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="0">
+        <v>8.6643728030680253e-16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="0">
+        <v>5.2232822925188349e-14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="0">
+        <v>1.4696583180808022e-15</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="0">
+        <v>6.1076081224633612e-17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="0">
+        <v>2.1217783364694185e-15</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="0">
+        <v>1.6225431288060383e-15</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>1.0528409627943791e-14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>9.3592668264165016e-15</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>1.4028539871730059e-15</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>1.4100687290945778e-16</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>4.4832855210474546e-14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>1.3047710751522179e-16</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>1.4091073094494911e-15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>6.9339749605716366e-17</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>2.8884525810008627e-15</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>1.4894578577276173e-15</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>2.0955518791981814e-16</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>1.5066988939181288e-16</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>2.83163273541362e-18</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>1.1673811381654712e-14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>1.6508611208129135e-13</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>5.0940122696873363e-15</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>1.138131799207995e-15</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>2.0213577741668447e-15</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>2.1324383805798671e-15</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>1.0704179639040473e-15</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>1.7099310673705155e-15</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>8.4858447258226622e-16</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>1.5563999511619941e-16</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>6.099307873641894e-16</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>7.5628744926325319e-16</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>4.4675158143425245e-18</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>6.5615461946027141e-16</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>2.0361235950364077e-17</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>2.9803296372092252e-15</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>7.5140520906818087e-12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>2.4559201240650829e-16</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>1.9751491038961306e-16</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>3.0551480417216257e-14</v>
       </c>
     </row>
   </sheetData>
